--- a/Data/EC/NIT-9006049588.xlsx
+++ b/Data/EC/NIT-9006049588.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D8C447-8ADB-4BE8-B7A4-A9A2DF5577E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B88F13-4B77-43E4-8E0E-A0DF7E2E11C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2061768F-7CD8-4370-B6BD-76B462FC20B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69BDFDC7-8B34-46B9-A51E-83550622D0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="120">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,316 +65,304 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1143385402</t>
-  </si>
-  <si>
-    <t>CLEIVER ALBERTO MARIN MORALES</t>
+    <t>72436055</t>
+  </si>
+  <si>
+    <t>DONALDO RAFAEL FRAILE SANDOVAL</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1048269945</t>
+  </si>
+  <si>
+    <t>JORGE LUIS MARMOL BERMUDEZ</t>
+  </si>
+  <si>
+    <t>1149438918</t>
+  </si>
+  <si>
+    <t>JOSE LUIS QUESADA MARMOL</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
   </si>
   <si>
     <t>1901</t>
   </si>
   <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>72436055</t>
-  </si>
-  <si>
-    <t>DONALDO RAFAEL FRAILE SANDOVAL</t>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
   </si>
   <si>
     <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1048269945</t>
-  </si>
-  <si>
-    <t>JORGE LUIS MARMOL BERMUDEZ</t>
-  </si>
-  <si>
-    <t>1149438918</t>
-  </si>
-  <si>
-    <t>JOSE LUIS QUESADA MARMOL</t>
-  </si>
-  <si>
-    <t>19897342</t>
-  </si>
-  <si>
-    <t>GILBERTO MERLANO FONTALVO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -473,7 +461,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -486,9 +476,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -688,23 +676,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,10 +720,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,7 +776,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B3D739-9DE6-AF5D-56F9-279F8D4AB837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680BD1DF-37CE-1C74-D067-E0ADCB54C3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,8 +1127,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C0C5F-C62C-4E77-AFC4-A83E780AF959}">
-  <dimension ref="B2:J249"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9026F0B5-E0B9-4A57-ABDA-E083E101291D}">
+  <dimension ref="B2:J233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1164,7 +1152,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1209,7 +1197,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1241,12 +1229,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6713708</v>
+        <v>6198272</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1257,14 +1245,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5">
         <v>94</v>
@@ -1294,13 +1282,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1317,10 +1305,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1331,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1354,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1383,13 +1371,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1400,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1423,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1455,10 +1443,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1469,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1492,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1521,13 +1509,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1538,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1561,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1584,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>26041</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1607,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1630,16 +1618,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1653,16 +1641,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1676,16 +1664,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1699,16 +1687,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1722,16 +1710,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1745,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1768,16 +1756,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1791,16 +1779,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1814,16 +1802,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1837,16 +1825,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1860,16 +1848,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1883,16 +1871,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1906,16 +1894,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1929,16 +1917,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1952,16 +1940,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1975,16 +1963,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1998,16 +1986,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2021,16 +2009,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2044,16 +2032,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2067,16 +2055,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2090,16 +2078,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2113,16 +2101,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2136,16 +2124,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2159,16 +2147,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2182,16 +2170,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2205,16 +2193,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2228,16 +2216,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2251,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2274,16 +2262,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2297,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2320,16 +2308,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2343,16 +2331,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2366,16 +2354,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2389,16 +2377,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2412,16 +2400,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2435,16 +2423,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2458,16 +2446,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2481,16 +2469,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2504,16 +2492,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2527,16 +2515,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2550,16 +2538,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2573,16 +2561,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2596,16 +2584,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2619,16 +2607,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2642,16 +2630,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2665,16 +2653,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2688,16 +2676,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2711,16 +2699,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2734,16 +2722,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2757,16 +2745,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2780,16 +2768,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2803,16 +2791,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2826,16 +2814,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2849,16 +2837,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2872,16 +2860,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2895,16 +2883,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2918,16 +2906,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2941,16 +2929,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2964,16 +2952,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2987,16 +2975,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -3010,16 +2998,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3033,16 +3021,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3056,13 +3044,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3079,13 +3067,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3102,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3125,13 +3113,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3148,16 +3136,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3171,16 +3159,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F97" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3194,16 +3182,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F98" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3217,16 +3205,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F99" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3240,16 +3228,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F100" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3263,16 +3251,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3286,16 +3274,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F102" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3309,16 +3297,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F103" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3332,16 +3320,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="F104" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3355,16 +3343,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F105" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3378,16 +3366,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F106" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3401,16 +3389,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F107" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3424,16 +3412,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F108" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3447,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F109" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3470,16 +3458,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F110" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3493,16 +3481,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F111" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3516,16 +3504,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="F112" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3539,16 +3527,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F113" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3562,16 +3550,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F114" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3585,16 +3573,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F115" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3608,16 +3596,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F116" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3631,16 +3619,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F117" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3654,16 +3642,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F118" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3677,16 +3665,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F119" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3700,16 +3688,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F120" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3723,16 +3711,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F121" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3746,16 +3734,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F122" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3769,16 +3757,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F123" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3792,16 +3780,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F124" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3815,16 +3803,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F125" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3838,16 +3826,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F126" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3861,16 +3849,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F127" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
         <v>781242</v>
@@ -3884,16 +3872,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F128" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3907,16 +3895,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F129" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3930,16 +3918,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F130" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
         <v>781242</v>
@@ -3953,16 +3941,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F131" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
         <v>781242</v>
@@ -3976,16 +3964,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F132" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -3999,16 +3987,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F133" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
         <v>781242</v>
@@ -4022,16 +4010,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F134" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
         <v>781242</v>
@@ -4045,16 +4033,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F135" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
         <v>781242</v>
@@ -4068,16 +4056,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F136" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
         <v>781242</v>
@@ -4091,16 +4079,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F137" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
         <v>781242</v>
@@ -4114,16 +4102,16 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F138" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
         <v>781242</v>
@@ -4137,16 +4125,16 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F139" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
         <v>781242</v>
@@ -4160,16 +4148,16 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F140" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
         <v>781242</v>
@@ -4183,16 +4171,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F141" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
         <v>781242</v>
@@ -4206,16 +4194,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F142" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
         <v>781242</v>
@@ -4229,16 +4217,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F143" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
         <v>781242</v>
@@ -4252,16 +4240,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F144" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4275,16 +4263,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F145" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
         <v>781242</v>
@@ -4298,16 +4286,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F146" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
         <v>781242</v>
@@ -4321,13 +4309,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4344,13 +4332,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4367,13 +4355,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4390,13 +4378,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4413,13 +4401,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4436,13 +4424,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4459,13 +4447,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4482,13 +4470,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4505,13 +4493,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4528,13 +4516,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4551,13 +4539,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4574,13 +4562,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4597,13 +4585,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4620,13 +4608,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4643,13 +4631,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4666,13 +4654,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4689,13 +4677,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4712,13 +4700,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4735,13 +4723,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4758,13 +4746,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4781,13 +4769,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4804,13 +4792,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4827,13 +4815,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4850,13 +4838,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4873,13 +4861,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
@@ -4896,13 +4884,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -4919,13 +4907,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -4942,13 +4930,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
@@ -4965,13 +4953,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
@@ -4988,13 +4976,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -5011,13 +4999,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
@@ -5034,13 +5022,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
@@ -5057,13 +5045,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F179" s="18">
         <v>31249</v>
@@ -5080,13 +5068,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
@@ -5103,13 +5091,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
@@ -5126,13 +5114,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F182" s="18">
         <v>31249</v>
@@ -5149,13 +5137,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
@@ -5172,13 +5160,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
@@ -5195,13 +5183,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
@@ -5218,13 +5206,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5241,13 +5229,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
@@ -5264,13 +5252,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5287,13 +5275,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5310,13 +5298,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5333,13 +5321,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5356,13 +5344,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5379,13 +5367,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5402,13 +5390,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5425,13 +5413,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5448,13 +5436,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5471,13 +5459,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5494,13 +5482,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5517,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5540,13 +5528,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5563,13 +5551,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5586,13 +5574,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5609,13 +5597,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
@@ -5632,13 +5620,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5655,13 +5643,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F205" s="18">
         <v>31249</v>
@@ -5678,13 +5666,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5701,13 +5689,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5724,13 +5712,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5747,13 +5735,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5770,13 +5758,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F210" s="18">
         <v>31249</v>
@@ -5793,13 +5781,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5816,13 +5804,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F212" s="18">
         <v>31249</v>
@@ -5839,13 +5827,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F213" s="18">
         <v>31249</v>
@@ -5862,16 +5850,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F214" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
         <v>781242</v>
@@ -5885,16 +5873,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F215" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
         <v>781242</v>
@@ -5908,16 +5896,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="F216" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -5931,16 +5919,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F217" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -5954,16 +5942,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F218" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
         <v>781242</v>
@@ -5977,16 +5965,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F219" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -6000,16 +5988,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F220" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -6023,16 +6011,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F221" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -6046,16 +6034,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F222" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -6069,16 +6057,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F223" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6092,16 +6080,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F224" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6115,16 +6103,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F225" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6138,16 +6126,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F226" s="18">
-        <v>25774</v>
+        <v>26041</v>
       </c>
       <c r="G226" s="18">
         <v>781242</v>
@@ -6157,424 +6145,56 @@
       <c r="J226" s="20"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B227" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F227" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G227" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B228" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E228" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F228" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G228" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B229" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F229" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G229" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B230" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D230" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E230" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F230" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G230" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B231" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D231" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E231" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F231" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G231" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
+      <c r="B227" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F227" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G227" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H227" s="25"/>
+      <c r="I227" s="25"/>
+      <c r="J227" s="26"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B232" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F232" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G232" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
+      <c r="B232" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C232" s="32"/>
+      <c r="H232" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B233" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E233" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F233" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G233" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B234" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D234" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F234" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G234" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B235" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C235" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D235" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F235" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G235" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B236" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E236" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F236" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G236" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B237" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D237" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E237" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F237" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G237" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D238" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F238" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G238" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F239" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G239" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F240" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G240" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B241" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F241" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G241" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B242" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F242" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G242" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B243" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C243" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D243" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E243" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F243" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G243" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H243" s="25"/>
-      <c r="I243" s="25"/>
-      <c r="J243" s="26"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C248" s="32"/>
-      <c r="H248" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C249" s="32"/>
-      <c r="H249" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
+      <c r="B233" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C233" s="32"/>
+      <c r="H233" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="H249:J249"/>
-    <mergeCell ref="H248:J248"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="H232:J232"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
